--- a/biology/Zoologie/Dytiscoidea/Dytiscoidea.xlsx
+++ b/biology/Zoologie/Dytiscoidea/Dytiscoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dytiscoidea forment une super-famille de coléoptères du sous-ordre des Adephaga. Il s'agit des "Hydradephaga" (= "Adephaga aquatica"), presque tous aquatiques.
 </t>
@@ -511,15 +523,51 @@
           <t>Familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Amphizoidae LeConte, 1853
 Aspidytidae Ribera, Beutel, Balke et Vogler, 2002
 Dytiscidae Leach, 1815
 Noteridae C. G. Thomson, 1860
-Pelobiidae Erichson, 1837 anciennement Hygrobiidae Régimbart, 1878
-Familles fossiles
-†Colymbothetidae Ponomarenko, 1993
+Pelobiidae Erichson, 1837 anciennement Hygrobiidae Régimbart, 1878</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dytiscoidea</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dytiscoidea</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Familles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Familles fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>†Colymbothetidae Ponomarenko, 1993
 †Coptoclavidae Ponomarenko, 1961
 †Liadytidae Ponomarenko, 1977
 †Parahygrobiidae Ponomarenko, 1977</t>
